--- a/sequences/32_cues.xlsx
+++ b/sequences/32_cues.xlsx
@@ -28,250 +28,250 @@
     <t>wenden</t>
   </si>
   <si>
-    <t>rühren</t>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>sparen</t>
   </si>
   <si>
     <t>platzen</t>
   </si>
   <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>passen</t>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>ächzen</t>
+  </si>
+  <si>
+    <t>leuchten</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>zeugen</t>
   </si>
   <si>
     <t>starren</t>
   </si>
   <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>geben</t>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>stören</t>
   </si>
   <si>
     <t>stärken</t>
   </si>
   <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
     <t>lächeln</t>
   </si>
   <si>
-    <t>weigern</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>kosten</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>packen</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>leuchten</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
     <t>bremsen</t>
   </si>
   <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>altern</t>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>schreiben</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
     <t>dog/dog031.jpg</t>
   </si>
   <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower000.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>flower</t>
   </si>
   <si>
     <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -742,7 +742,7 @@
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -808,7 +808,7 @@
         <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -830,7 +830,7 @@
         <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -841,7 +841,7 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -874,7 +874,7 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -907,7 +907,7 @@
         <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -929,7 +929,7 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -962,7 +962,7 @@
         <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -995,7 +995,7 @@
         <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1094,7 +1094,7 @@
         <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3">

--- a/sequences/32_cues.xlsx
+++ b/sequences/32_cues.xlsx
@@ -28,244 +28,244 @@
     <t>wenden</t>
   </si>
   <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>leuchten</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
     <t>küssen</t>
   </si>
   <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>wandern</t>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>ächzen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>stören</t>
   </si>
   <si>
     <t>schützen</t>
   </si>
   <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>weigern</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>leuchten</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>kosten</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>zahlen</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>lächeln</t>
+    <t>fühlen</t>
   </si>
   <si>
     <t>bremsen</t>
   </si>
   <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>schreiben</t>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>mauern</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t>flower/flower021.jpg</t>
+    <t>flower/flower020.jpg</t>
   </si>
   <si>
     <t>flower/flower014.jpg</t>
   </si>
   <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
   </si>
   <si>
     <t>flower/flower006.jpg</t>
   </si>
   <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
   </si>
   <si>
     <t>dog/dog014.jpg</t>
   </si>
   <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
+    <t>dog/dog003.jpg</t>
   </si>
   <si>
     <t>flower</t>
@@ -698,7 +698,7 @@
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -731,7 +731,7 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -775,7 +775,7 @@
         <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -830,7 +830,7 @@
         <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -841,7 +841,7 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -863,7 +863,7 @@
         <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -874,7 +874,7 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -907,7 +907,7 @@
         <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -929,7 +929,7 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -940,7 +940,7 @@
         <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -973,7 +973,7 @@
         <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -995,7 +995,7 @@
         <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1006,7 +1006,7 @@
         <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1028,7 +1028,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1072,7 +1072,7 @@
         <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1094,7 +1094,7 @@
         <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1127,7 +1127,7 @@
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1138,7 +1138,7 @@
         <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3">
